--- a/docs/vpc/EL2.xlsx
+++ b/docs/vpc/EL2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DD064-B980-4D46-844E-3EB8903AA11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15546BAC-7A38-491C-B606-47CCAA5F8D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4330" yWindow="950" windowWidth="16190" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="140" windowWidth="16190" windowHeight="9650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="el2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>VPIDR_EL2</t>
   </si>
@@ -309,6 +309,68 @@
   </si>
   <si>
     <t>Reset</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>VM parameter</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最初にVMが起動する時のCNTPCT_EL0</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MIDR_EL1を元に生成</t>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MPIDR_EL1を元に生成</t>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EL2が例外をトラップ後にVMを切り替える状況を考慮してRegister Arrayに追加</t>
+    <rPh sb="4" eb="6">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -951,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +1034,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1330,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1341,8 +1418,8 @@
     <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.75" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -1364,7 +1441,7 @@
       <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1384,8 +1461,12 @@
       <c r="E2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -1403,8 +1484,12 @@
       <c r="E3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
@@ -1425,7 +1510,7 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
@@ -1441,10 +1526,8 @@
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -1460,12 +1543,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="4"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1478,11 +1559,15 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
@@ -1498,10 +1583,8 @@
         <v>15</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
@@ -1519,8 +1602,10 @@
       <c r="E9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
@@ -1537,7 +1622,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
@@ -1554,7 +1639,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
@@ -1571,7 +1656,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
@@ -1588,7 +1673,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
@@ -1606,8 +1691,10 @@
       <c r="E14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
@@ -1625,8 +1712,10 @@
       <c r="E15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
@@ -1643,7 +1732,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
@@ -1660,7 +1749,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
@@ -1677,7 +1766,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
@@ -1694,7 +1783,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
@@ -1712,8 +1801,10 @@
       <c r="E20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
@@ -1730,7 +1821,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
@@ -1747,7 +1838,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
@@ -1765,8 +1856,10 @@
       <c r="E23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
@@ -1784,8 +1877,10 @@
       <c r="E24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
@@ -1803,8 +1898,10 @@
       <c r="E25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
@@ -1821,7 +1918,7 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
@@ -1838,7 +1935,7 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
@@ -1855,7 +1952,7 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
@@ -1872,7 +1969,7 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
@@ -1889,7 +1986,7 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
@@ -1906,7 +2003,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
@@ -1923,7 +2020,7 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
@@ -1940,7 +2037,7 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
@@ -1957,7 +2054,7 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
@@ -1974,7 +2071,7 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
@@ -1991,7 +2088,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
@@ -2008,7 +2105,7 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
@@ -2025,7 +2122,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
@@ -2043,8 +2140,12 @@
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
@@ -2061,7 +2162,7 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
@@ -2078,7 +2179,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
@@ -2095,7 +2196,7 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
@@ -2112,7 +2213,7 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/docs/vpc/EL2.xlsx
+++ b/docs/vpc/EL2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15546BAC-7A38-491C-B606-47CCAA5F8D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8EEDD5-4109-41C9-A6E2-DB94E25FA586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="140" windowWidth="16190" windowHeight="9650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="el2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>VPIDR_EL2</t>
   </si>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1582,7 +1582,9 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="9"/>
     </row>
